--- a/Resource/SampleData-License.xlsx
+++ b/Resource/SampleData-License.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\KSP-MIS\Resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77E38BA-C507-408B-8003-90F67F9A82E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BBE654-7D28-4703-9E93-9AE0C718154C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="3" xr2:uid="{1DF7F1D8-6A42-4C37-AD36-A6763D4F1A6B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="4" xr2:uid="{1DF7F1D8-6A42-4C37-AD36-A6763D4F1A6B}"/>
   </bookViews>
   <sheets>
     <sheet name="4" sheetId="1" r:id="rId1"/>
     <sheet name="12" sheetId="2" r:id="rId2"/>
     <sheet name="02" sheetId="3" r:id="rId3"/>
     <sheet name="09" sheetId="4" r:id="rId4"/>
+    <sheet name="05" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="49">
   <si>
     <t>Type1</t>
   </si>
@@ -175,6 +176,12 @@
   </si>
   <si>
     <t>aaaaa</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>randomGenerate</t>
   </si>
 </sst>
 </file>
@@ -4001,17 +4008,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544CF330-75E0-4FC8-831D-BE7C7866E377}">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P14" sqref="P14:P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="24.265625" customWidth="1"/>
     <col min="4" max="4" width="9.06640625" customWidth="1"/>
-    <col min="12" max="12" width="23.6640625" customWidth="1"/>
+    <col min="5" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="28.19921875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="23.6640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
@@ -4048,7 +4059,7 @@
         <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I2">
         <v>27000</v>
@@ -4057,7 +4068,7 @@
         <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s">
         <v>32</v>
@@ -4098,7 +4109,7 @@
         <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I3">
         <v>13000</v>
@@ -4107,7 +4118,7 @@
         <v>21</v>
       </c>
       <c r="K3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L3" t="s">
         <v>31</v>
@@ -4146,7 +4157,7 @@
         <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I4">
         <v>14000</v>
@@ -4155,7 +4166,7 @@
         <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L4" t="s">
         <v>34</v>
@@ -4194,7 +4205,7 @@
         <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I5">
         <v>9000</v>
@@ -4203,7 +4214,7 @@
         <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L5" t="s">
         <v>35</v>
@@ -4242,7 +4253,7 @@
         <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I6">
         <v>8500</v>
@@ -4251,7 +4262,7 @@
         <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L6" t="s">
         <v>36</v>
@@ -4290,7 +4301,7 @@
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I7">
         <v>5000</v>
@@ -4299,7 +4310,7 @@
         <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L7" t="s">
         <v>33</v>
@@ -4338,7 +4349,7 @@
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I8">
         <v>2700</v>
@@ -4347,7 +4358,7 @@
         <v>21</v>
       </c>
       <c r="K8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L8" t="s">
         <v>37</v>
@@ -4386,7 +4397,7 @@
         <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I9">
         <v>1900</v>
@@ -4395,7 +4406,7 @@
         <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L9" t="s">
         <v>40</v>
@@ -4434,7 +4445,7 @@
         <v>39</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I10">
         <v>1000</v>
@@ -4443,7 +4454,7 @@
         <v>21</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L10" t="s">
         <v>39</v>
@@ -4482,7 +4493,7 @@
         <v>38</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I11">
         <v>150</v>
@@ -4491,7 +4502,7 @@
         <v>21</v>
       </c>
       <c r="K11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L11" t="s">
         <v>38</v>
@@ -4541,7 +4552,7 @@
         <v>32</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I14">
         <v>18000</v>
@@ -4550,7 +4561,7 @@
         <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L14" t="s">
         <v>32</v>
@@ -4561,6 +4572,9 @@
       <c r="N14">
         <v>19333</v>
       </c>
+      <c r="O14" t="s">
+        <v>21</v>
+      </c>
       <c r="P14" s="2" t="s">
         <v>15</v>
       </c>
@@ -4588,7 +4602,7 @@
         <v>31</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I15">
         <v>8666</v>
@@ -4597,7 +4611,7 @@
         <v>21</v>
       </c>
       <c r="K15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L15" t="s">
         <v>31</v>
@@ -4608,6 +4622,9 @@
       <c r="N15">
         <v>8000</v>
       </c>
+      <c r="O15" t="s">
+        <v>21</v>
+      </c>
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
@@ -4633,7 +4650,7 @@
         <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I16">
         <v>9333</v>
@@ -4642,7 +4659,7 @@
         <v>21</v>
       </c>
       <c r="K16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L16" t="s">
         <v>34</v>
@@ -4653,9 +4670,12 @@
       <c r="N16">
         <v>10000</v>
       </c>
+      <c r="O16" t="s">
+        <v>21</v>
+      </c>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -4678,7 +4698,7 @@
         <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I17">
         <v>6000</v>
@@ -4687,7 +4707,7 @@
         <v>21</v>
       </c>
       <c r="K17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L17" t="s">
         <v>35</v>
@@ -4698,9 +4718,21 @@
       <c r="N17">
         <v>5333</v>
       </c>
+      <c r="O17" t="s">
+        <v>21</v>
+      </c>
       <c r="P17" s="2"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R17">
+        <v>24366</v>
+      </c>
+      <c r="S17">
+        <v>16666</v>
+      </c>
+      <c r="T17">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -4723,7 +4755,7 @@
         <v>36</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I18">
         <v>5666</v>
@@ -4732,7 +4764,7 @@
         <v>21</v>
       </c>
       <c r="K18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L18" t="s">
         <v>36</v>
@@ -4743,9 +4775,12 @@
       <c r="N18">
         <v>6666</v>
       </c>
+      <c r="O18" t="s">
+        <v>21</v>
+      </c>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -4768,7 +4803,7 @@
         <v>33</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I19">
         <v>3333</v>
@@ -4777,7 +4812,7 @@
         <v>21</v>
       </c>
       <c r="K19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L19" t="s">
         <v>33</v>
@@ -4788,9 +4823,12 @@
       <c r="N19">
         <v>4666</v>
       </c>
+      <c r="O19" t="s">
+        <v>21</v>
+      </c>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -4813,7 +4851,7 @@
         <v>37</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I20">
         <v>1800</v>
@@ -4822,7 +4860,7 @@
         <v>21</v>
       </c>
       <c r="K20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L20" t="s">
         <v>37</v>
@@ -4833,9 +4871,12 @@
       <c r="N20">
         <v>1666</v>
       </c>
+      <c r="O20" t="s">
+        <v>21</v>
+      </c>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -4858,7 +4899,7 @@
         <v>40</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I21">
         <v>1266</v>
@@ -4867,7 +4908,7 @@
         <v>21</v>
       </c>
       <c r="K21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L21" t="s">
         <v>40</v>
@@ -4878,9 +4919,12 @@
       <c r="N21">
         <v>933</v>
       </c>
+      <c r="O21" t="s">
+        <v>21</v>
+      </c>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -4903,7 +4947,7 @@
         <v>39</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I22">
         <v>666</v>
@@ -4912,7 +4956,7 @@
         <v>21</v>
       </c>
       <c r="K22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L22" t="s">
         <v>39</v>
@@ -4923,9 +4967,12 @@
       <c r="N22">
         <v>800</v>
       </c>
+      <c r="O22" t="s">
+        <v>21</v>
+      </c>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -4948,7 +4995,7 @@
         <v>38</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I23">
         <v>100</v>
@@ -4957,7 +5004,7 @@
         <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L23" t="s">
         <v>38</v>
@@ -4968,9 +5015,12 @@
       <c r="N23">
         <v>133</v>
       </c>
+      <c r="O23" t="s">
+        <v>21</v>
+      </c>
       <c r="P23" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>43</v>
       </c>
@@ -4981,7 +5031,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -5004,7 +5054,7 @@
         <v>32</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I26">
         <v>22700</v>
@@ -5013,7 +5063,7 @@
         <v>21</v>
       </c>
       <c r="K26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L26" t="s">
         <v>32</v>
@@ -5024,11 +5074,14 @@
       <c r="N26">
         <v>24366</v>
       </c>
+      <c r="O26" t="s">
+        <v>21</v>
+      </c>
       <c r="P26" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -5051,7 +5104,7 @@
         <v>31</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I27">
         <v>11032</v>
@@ -5060,7 +5113,7 @@
         <v>21</v>
       </c>
       <c r="K27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L27" t="s">
         <v>31</v>
@@ -5071,9 +5124,12 @@
       <c r="N27">
         <v>10200</v>
       </c>
+      <c r="O27" t="s">
+        <v>21</v>
+      </c>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -5096,7 +5152,7 @@
         <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I28">
         <v>11866</v>
@@ -5105,7 +5161,7 @@
         <v>21</v>
       </c>
       <c r="K28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L28" t="s">
         <v>34</v>
@@ -5116,9 +5172,12 @@
       <c r="N28">
         <v>12700</v>
       </c>
+      <c r="O28" t="s">
+        <v>21</v>
+      </c>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -5141,7 +5200,7 @@
         <v>35</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I29">
         <v>7700</v>
@@ -5150,7 +5209,7 @@
         <v>21</v>
       </c>
       <c r="K29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L29" t="s">
         <v>35</v>
@@ -5161,9 +5220,12 @@
       <c r="N29">
         <v>6866</v>
       </c>
+      <c r="O29" t="s">
+        <v>21</v>
+      </c>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -5186,7 +5248,7 @@
         <v>36</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I30">
         <v>7282</v>
@@ -5195,7 +5257,7 @@
         <v>21</v>
       </c>
       <c r="K30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L30" t="s">
         <v>36</v>
@@ -5206,9 +5268,12 @@
       <c r="N30">
         <v>8532</v>
       </c>
+      <c r="O30" t="s">
+        <v>21</v>
+      </c>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -5231,7 +5296,7 @@
         <v>33</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I31">
         <v>4366</v>
@@ -5240,7 +5305,7 @@
         <v>21</v>
       </c>
       <c r="K31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L31" t="s">
         <v>33</v>
@@ -5251,9 +5316,12 @@
       <c r="N31">
         <v>6032</v>
       </c>
+      <c r="O31" t="s">
+        <v>21</v>
+      </c>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -5276,7 +5344,7 @@
         <v>37</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I32">
         <v>2450</v>
@@ -5285,7 +5353,7 @@
         <v>21</v>
       </c>
       <c r="K32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L32" t="s">
         <v>37</v>
@@ -5296,6 +5364,9 @@
       <c r="N32">
         <v>2282</v>
       </c>
+      <c r="O32" t="s">
+        <v>21</v>
+      </c>
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.45">
@@ -5321,7 +5392,7 @@
         <v>40</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I33">
         <v>1782</v>
@@ -5330,7 +5401,7 @@
         <v>21</v>
       </c>
       <c r="K33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L33" t="s">
         <v>40</v>
@@ -5341,6 +5412,9 @@
       <c r="N33">
         <v>1366</v>
       </c>
+      <c r="O33" t="s">
+        <v>21</v>
+      </c>
       <c r="P33" s="2"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.45">
@@ -5366,7 +5440,7 @@
         <v>39</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I34">
         <v>1032</v>
@@ -5375,7 +5449,7 @@
         <v>21</v>
       </c>
       <c r="K34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L34" t="s">
         <v>39</v>
@@ -5386,6 +5460,9 @@
       <c r="N34">
         <v>1200</v>
       </c>
+      <c r="O34" t="s">
+        <v>21</v>
+      </c>
       <c r="P34" s="2"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.45">
@@ -5411,7 +5488,7 @@
         <v>38</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I35">
         <v>325</v>
@@ -5420,7 +5497,7 @@
         <v>21</v>
       </c>
       <c r="K35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L35" t="s">
         <v>38</v>
@@ -5430,6 +5507,9 @@
       </c>
       <c r="N35">
         <v>366</v>
+      </c>
+      <c r="O35" t="s">
+        <v>21</v>
       </c>
       <c r="P35" s="2"/>
     </row>
@@ -5441,4 +5521,24 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E2CDEC-8613-4B88-971B-2AADD5C1A9B2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>